--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81883.19161184736</v>
+        <v>95206.65460186757</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25070.89401372291</v>
+        <v>-22876.85944685533</v>
       </c>
       <c r="C6" t="n">
-        <v>-25070.89401372291</v>
+        <v>-22876.85944685533</v>
       </c>
       <c r="D6" t="n">
-        <v>-25070.89401372291</v>
+        <v>-22876.85944685533</v>
       </c>
       <c r="E6" t="n">
-        <v>-88621.42231948952</v>
+        <v>-87321.22618032407</v>
       </c>
       <c r="F6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="G6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="H6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="I6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="J6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="K6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="L6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="M6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="N6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="O6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
       <c r="P6" t="n">
-        <v>44478.57768051053</v>
+        <v>45778.77381967592</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95206.65460186757</v>
+        <v>108933.0127392857</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
         <v>47782.0800026998</v>
@@ -26528,7 +26530,7 @@
         <v>-22876.85944685533</v>
       </c>
       <c r="E6" t="n">
-        <v>-87321.22618032407</v>
+        <v>-87321.22618032413</v>
       </c>
       <c r="F6" t="n">
         <v>45778.77381967592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108933.0127392857</v>
+        <v>-16176.88605819091</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>91381.29470172945</v>
       </c>
       <c r="D2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="E2" t="n">
         <v>97172.46592738405</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-38027.53341689009</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-38027.53341689009</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="E6" t="n">
-        <v>-87321.22618032413</v>
+        <v>-102131.243019438</v>
       </c>
       <c r="F6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="G6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="H6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="I6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="J6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="K6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="L6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="M6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="N6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="O6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
       <c r="P6" t="n">
-        <v>45778.77381967592</v>
+        <v>30968.75698056202</v>
       </c>
     </row>
   </sheetData>
